--- a/数据整理/stocks/A股/科创板/688190-云路股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688190-云路股份.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -583,7 +584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,17 +595,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -614,13 +635,141 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4975</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1368</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688190-云路股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688190-云路股份.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,37 +463,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -503,36 +483,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006689</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>方正富邦信泓灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.57</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0909</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.63</v>
       </c>
     </row>
     <row r="3">
@@ -541,36 +499,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008182</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>方正富邦信泓灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.57</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
@@ -716,7 +652,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,17 +663,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -747,14 +703,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.63</v>
+          <t>006689</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -763,14 +741,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.09</v>
+          <t>008182</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688190-云路股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688190-云路股份.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
         <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.63</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -520,7 +537,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,36 +588,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002666</t>
+          <t>001869</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源沪港深创新成长灵活配置混合A</t>
+          <t>招商制造业转型灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.07</t>
+          <t>21.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.43</t>
+          <t>87.08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4975</t>
+          <t>0.7401</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -609,36 +626,226 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002667</t>
+          <t>213003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深创新成长灵活配置混合C</t>
+          <t>宝盈策略增长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>10.55</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.43</t>
+          <t>90.74</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1368</t>
+          <t>0.5222</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2958</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004569</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2069</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008132</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华价值驱动混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1828</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000796</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000794</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - A/B</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -703,6 +910,138 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4975</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1368</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>006689</t>
         </is>
       </c>

--- a/数据整理/stocks/A股/科创板/688190-云路股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688190-云路股份.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
         <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.63</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -532,6 +549,366 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008132</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华价值驱动混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1857</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014541</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安新能源主题混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011888</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014542</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安新能源主题混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011889</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013530</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -846,138 +1223,6 @@
       </c>
       <c r="H8" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002666</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源沪港深创新成长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10.07</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>85.43</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4975</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002667</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源沪港深创新成长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>85.43</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1368</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1042,6 +1287,138 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4975</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1368</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>006689</t>
         </is>
       </c>
